--- a/biology/Botanique/Muscari_armeniacum/Muscari_armeniacum.xlsx
+++ b/biology/Botanique/Muscari_armeniacum/Muscari_armeniacum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muscari d'Arménie
-Muscari armeniacum, le Muscari d'Arménie[1], est une espèce de plantes vivaces de la famille des Asparagaceae et du genre Muscari.
+Muscari armeniacum, le Muscari d'Arménie, est une espèce de plantes vivaces de la famille des Asparagaceae et du genre Muscari.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Muscari armeniacum H.J.Veitch, 1872[2]. Certaines sources, dont l’INPN, donnent Leichtlin (d) ex Baker, 1878 mais ce nom est considéré comme invalide par Wikispecies[3].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Muscari d'Arménie[1], Muscari[4].
-Muscari armeniacum a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Muscari armeniacum H.J.Veitch, 1872. Certaines sources, dont l’INPN, donnent Leichtlin (d) ex Baker, 1878 mais ce nom est considéré comme invalide par Wikispecies.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Muscari d'Arménie, Muscari.
+Muscari armeniacum a pour synonymes :
 Bellevalia aperta (Freyn &amp; Conrath) Grossh.
 Botryanthus micranthus Baker
 Botryanthus szovitsianus Baker
